--- a/data/trans_dic/P21D_6_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_6_R-Provincia-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.02240294567161982</v>
+        <v>0.02555611585881688</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01217927673526445</v>
+        <v>0.01359211912462057</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0.009973256430126903</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01601828789780158</v>
+        <v>0.01601828789780157</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008060462242538905</v>
+        <v>0.005699252103944317</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002427808302172037</v>
+        <v>0.002446537481552352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007327253141735274</v>
+        <v>0.007857180622244855</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06193573676337032</v>
+        <v>0.06055621148275838</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02462834463472004</v>
+        <v>0.02311798518154904</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03212450123138228</v>
+        <v>0.03331977837708704</v>
       </c>
     </row>
     <row r="10">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03808893890138924</v>
+        <v>0.03647735071509407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02834600705755639</v>
+        <v>0.02886797860742847</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07431360545780871</v>
+        <v>0.0681144661322976</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1008802254915748</v>
+        <v>0.09875333227146045</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07409630323774991</v>
+        <v>0.0731550835564594</v>
       </c>
     </row>
     <row r="13">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002279712603440438</v>
+        <v>0.002736326232184937</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03878678922330315</v>
+        <v>0.03794507407686153</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02116115099238707</v>
+        <v>0.02017059316764292</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01848652004395102</v>
+        <v>0.02058161584940636</v>
       </c>
     </row>
     <row r="16">
@@ -856,10 +856,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01939889324492587</v>
+        <v>0.02883484309125303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01151230415152338</v>
+        <v>0.01065838269150948</v>
       </c>
     </row>
     <row r="22">
@@ -880,7 +880,7 @@
         <v>0.01653540537778926</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.008318796074611999</v>
+        <v>0.008318796074611997</v>
       </c>
     </row>
     <row r="23">
@@ -892,10 +892,10 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.007606726842257007</v>
+        <v>0.007315907617203753</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003082421758801459</v>
+        <v>0.003031710132626174</v>
       </c>
     </row>
     <row r="24">
@@ -907,10 +907,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.03575073036004023</v>
+        <v>0.03719530181638685</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01610365328752703</v>
+        <v>0.01733917757752539</v>
       </c>
     </row>
     <row r="25">
@@ -958,10 +958,10 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.008489971317272681</v>
+        <v>0.006937827502740678</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.004050910597882438</v>
+        <v>0.004025209459617612</v>
       </c>
     </row>
     <row r="28">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.005510759032703635</v>
+        <v>0.005510759032703634</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.01234686822717714</v>
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.002397390635716575</v>
+        <v>0.002644483169476934</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.008544719195993726</v>
+        <v>0.008099540965630434</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.006356458853345961</v>
+        <v>0.006347353080238895</v>
       </c>
     </row>
     <row r="30">
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01044900739447415</v>
+        <v>0.01136871582769895</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01793577330558031</v>
+        <v>0.01716700591517368</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0123121623970247</v>
+        <v>0.01233277765215794</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1178,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>3107</v>
+        <v>3545</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3568</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="8">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1779</v>
+        <v>1258</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3460</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="11">
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13671</v>
+        <v>13367</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6195</v>
+        <v>5815</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15171</v>
+        <v>15735</v>
       </c>
     </row>
     <row r="12">
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5574</v>
+        <v>5338</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6786</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="15">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6915</v>
+        <v>6338</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14763</v>
+        <v>14452</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17738</v>
+        <v>17513</v>
       </c>
     </row>
     <row r="16">
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>857</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="19">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6767</v>
+        <v>6620</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4264</v>
+        <v>4065</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6950</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="20">
@@ -1522,10 +1522,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>2206</v>
+        <v>3279</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2769</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="28">
@@ -1575,10 +1575,10 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>2709</v>
+        <v>2606</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2182</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="31">
@@ -1590,10 +1590,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>12734</v>
+        <v>13248</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>11401</v>
+        <v>12276</v>
       </c>
     </row>
     <row r="32">
@@ -1658,10 +1658,10 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>3462</v>
+        <v>2829</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3113</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="36">
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>3755</v>
+        <v>4142</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>14484</v>
+        <v>13730</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>20731</v>
+        <v>20701</v>
       </c>
     </row>
     <row r="39">
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>16366</v>
+        <v>17806</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>30403</v>
+        <v>29100</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>40154</v>
+        <v>40222</v>
       </c>
     </row>
     <row r="40">
